--- a/氣象性能評估工具V2/data/obs/2016-06-06_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-06_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="198">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>21.2</t>
+  </si>
+  <si>
     <t>2016-06-06-00</t>
   </si>
   <si>
-    <t>21.2</t>
-  </si>
-  <si>
     <t>25.8</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>27.6</t>
   </si>
   <si>
+    <t>20.9</t>
+  </si>
+  <si>
     <t>2016-06-06-01</t>
   </si>
   <si>
-    <t>20.9</t>
-  </si>
-  <si>
     <t>22.5</t>
   </si>
   <si>
@@ -256,12 +256,12 @@
     <t>26.6</t>
   </si>
   <si>
+    <t>22.2</t>
+  </si>
+  <si>
     <t>2016-06-06-04</t>
   </si>
   <si>
-    <t>22.2</t>
-  </si>
-  <si>
     <t>20.0</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>28.7</t>
   </si>
   <si>
+    <t>23.0</t>
+  </si>
+  <si>
     <t>2016-06-06-07</t>
   </si>
   <si>
-    <t>23.0</t>
-  </si>
-  <si>
     <t>27.9</t>
   </si>
   <si>
@@ -385,12 +385,12 @@
     <t>30.4</t>
   </si>
   <si>
+    <t>20.6</t>
+  </si>
+  <si>
     <t>2016-06-06-09</t>
   </si>
   <si>
-    <t>20.6</t>
-  </si>
-  <si>
     <t>30.9</t>
   </si>
   <si>
@@ -496,12 +496,12 @@
     <t>31.7</t>
   </si>
   <si>
+    <t>20.7</t>
+  </si>
+  <si>
     <t>2016-06-06-13</t>
   </si>
   <si>
-    <t>20.7</t>
-  </si>
-  <si>
     <t>19.0</t>
   </si>
   <si>
@@ -550,33 +550,33 @@
     <t>6.4</t>
   </si>
   <si>
+    <t>21.1</t>
+  </si>
+  <si>
     <t>2016-06-06-17</t>
   </si>
   <si>
-    <t>21.1</t>
-  </si>
-  <si>
     <t>22.8</t>
   </si>
   <si>
     <t>13.2</t>
   </si>
   <si>
+    <t>20.4</t>
+  </si>
+  <si>
     <t>2016-06-06-18</t>
   </si>
   <si>
-    <t>20.4</t>
-  </si>
-  <si>
     <t>29.4</t>
   </si>
   <si>
+    <t>20.1</t>
+  </si>
+  <si>
     <t>2016-06-06-19</t>
   </si>
   <si>
-    <t>20.1</t>
-  </si>
-  <si>
     <t>21.7</t>
   </si>
   <si>
@@ -586,10 +586,10 @@
     <t>2016-06-06-20</t>
   </si>
   <si>
+    <t>19.8</t>
+  </si>
+  <si>
     <t>2016-06-06-21</t>
-  </si>
-  <si>
-    <t>19.8</t>
   </si>
   <si>
     <t>21.5</t>
@@ -614,6 +614,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -643,8 +646,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,11 +1027,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1100,11 +1104,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1177,7 +1181,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B4" t="s">
@@ -1254,7 +1258,7 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B5" t="s">
@@ -1331,11 +1335,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -1408,7 +1412,7 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B7" t="s">
@@ -1485,11 +1489,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -1562,11 +1566,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
         <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -1639,11 +1643,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
@@ -1716,11 +1720,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
         <v>123</v>
-      </c>
-      <c r="B11" t="s">
-        <v>124</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -1793,7 +1797,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B12" t="s">
@@ -1870,7 +1874,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B13" t="s">
@@ -1947,11 +1951,11 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -2024,11 +2028,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s">
         <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>85</v>
@@ -2101,11 +2105,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>79</v>
@@ -2144,7 +2148,7 @@
         <v>27</v>
       </c>
       <c r="O16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P16" t="s">
         <v>155</v>
@@ -2178,11 +2182,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -2255,11 +2259,11 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -2332,11 +2336,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
         <v>178</v>
-      </c>
-      <c r="B19" t="s">
-        <v>179</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -2409,11 +2413,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" t="s">
         <v>182</v>
-      </c>
-      <c r="B20" t="s">
-        <v>183</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -2486,11 +2490,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" t="s">
         <v>185</v>
-      </c>
-      <c r="B21" t="s">
-        <v>186</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
@@ -2563,7 +2567,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B22" t="s">
@@ -2573,7 +2577,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -2640,11 +2644,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" t="s">
         <v>190</v>
-      </c>
-      <c r="B23" t="s">
-        <v>191</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
@@ -2717,7 +2721,7 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B24" t="s">
@@ -2727,7 +2731,7 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
         <v>65</v>
@@ -2794,11 +2798,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
@@ -2837,7 +2841,7 @@
         <v>33</v>
       </c>
       <c r="O25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P25" t="s">
         <v>181</v>
